--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il4-Il4ra.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il4-Il4ra.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6936916564088</v>
+        <v>0.7922663333333334</v>
       </c>
       <c r="H2">
-        <v>0.6936916564088</v>
+        <v>2.376799</v>
       </c>
       <c r="I2">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="J2">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.6881331656439</v>
+        <v>35.41769233333333</v>
       </c>
       <c r="N2">
-        <v>30.6881331656439</v>
+        <v>106.253077</v>
       </c>
       <c r="O2">
-        <v>0.3363912701639278</v>
+        <v>0.3584901985342537</v>
       </c>
       <c r="P2">
-        <v>0.3363912701639278</v>
+        <v>0.3584901985342537</v>
       </c>
       <c r="Q2">
-        <v>21.28810192776935</v>
+        <v>28.06024524005811</v>
       </c>
       <c r="R2">
-        <v>21.28810192776935</v>
+        <v>252.542207160523</v>
       </c>
       <c r="S2">
-        <v>0.05852925908164884</v>
+        <v>0.06307949488573451</v>
       </c>
       <c r="T2">
-        <v>0.05852925908164884</v>
+        <v>0.06307949488573453</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6936916564088</v>
+        <v>0.7922663333333334</v>
       </c>
       <c r="H3">
-        <v>0.6936916564088</v>
+        <v>2.376799</v>
       </c>
       <c r="I3">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="J3">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.0562213800374</v>
+        <v>30.255923</v>
       </c>
       <c r="N3">
-        <v>30.0562213800374</v>
+        <v>90.767769</v>
       </c>
       <c r="O3">
-        <v>0.3294645012058961</v>
+        <v>0.3062438890999955</v>
       </c>
       <c r="P3">
-        <v>0.3294645012058961</v>
+        <v>0.3062438890999956</v>
       </c>
       <c r="Q3">
-        <v>20.84974999450773</v>
+        <v>23.97074917682567</v>
       </c>
       <c r="R3">
-        <v>20.84974999450773</v>
+        <v>215.736742591431</v>
       </c>
       <c r="S3">
-        <v>0.05732405939039111</v>
+        <v>0.05388629846856136</v>
       </c>
       <c r="T3">
-        <v>0.05732405939039111</v>
+        <v>0.05388629846856138</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6936916564088</v>
+        <v>0.7922663333333334</v>
       </c>
       <c r="H4">
-        <v>0.6936916564088</v>
+        <v>2.376799</v>
       </c>
       <c r="I4">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="J4">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.292460938973</v>
+        <v>29.46429466666667</v>
       </c>
       <c r="N4">
-        <v>27.292460938973</v>
+        <v>88.39288400000001</v>
       </c>
       <c r="O4">
-        <v>0.2991692440724548</v>
+        <v>0.2982311988402488</v>
       </c>
       <c r="P4">
-        <v>0.2991692440724548</v>
+        <v>0.2982311988402488</v>
       </c>
       <c r="Q4">
-        <v>18.93255243622865</v>
+        <v>23.3435686998129</v>
       </c>
       <c r="R4">
-        <v>18.93255243622865</v>
+        <v>210.092118298316</v>
       </c>
       <c r="S4">
-        <v>0.05205293879072669</v>
+        <v>0.05247639533501064</v>
       </c>
       <c r="T4">
-        <v>0.05205293879072669</v>
+        <v>0.05247639533501065</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6936916564088</v>
+        <v>0.7922663333333334</v>
       </c>
       <c r="H5">
-        <v>0.6936916564088</v>
+        <v>2.376799</v>
       </c>
       <c r="I5">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="J5">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.19068025472434</v>
+        <v>3.658912</v>
       </c>
       <c r="N5">
-        <v>3.19068025472434</v>
+        <v>10.976736</v>
       </c>
       <c r="O5">
-        <v>0.03497498455772114</v>
+        <v>0.03703471352550186</v>
       </c>
       <c r="P5">
-        <v>0.03497498455772114</v>
+        <v>0.03703471352550187</v>
       </c>
       <c r="Q5">
-        <v>2.213348270970579</v>
+        <v>2.898832794229334</v>
       </c>
       <c r="R5">
-        <v>2.213348270970579</v>
+        <v>26.089495148064</v>
       </c>
       <c r="S5">
-        <v>0.006085353914083351</v>
+        <v>0.006516582690344657</v>
       </c>
       <c r="T5">
-        <v>0.006085353914083351</v>
+        <v>0.00651658269034466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.06030720464197</v>
+        <v>2.077831666666667</v>
       </c>
       <c r="H6">
-        <v>2.06030720464197</v>
+        <v>6.233495</v>
       </c>
       <c r="I6">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="J6">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.6881331656439</v>
+        <v>35.41769233333333</v>
       </c>
       <c r="N6">
-        <v>30.6881331656439</v>
+        <v>106.253077</v>
       </c>
       <c r="O6">
-        <v>0.3363912701639278</v>
+        <v>0.3584901985342537</v>
       </c>
       <c r="P6">
-        <v>0.3363912701639278</v>
+        <v>0.3584901985342537</v>
       </c>
       <c r="Q6">
-        <v>63.22698185818831</v>
+        <v>73.59200269045722</v>
       </c>
       <c r="R6">
-        <v>63.22698185818831</v>
+        <v>662.328024214115</v>
       </c>
       <c r="S6">
-        <v>0.1738355262805894</v>
+        <v>0.1654349888117387</v>
       </c>
       <c r="T6">
-        <v>0.1738355262805894</v>
+        <v>0.1654349888117387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.06030720464197</v>
+        <v>2.077831666666667</v>
       </c>
       <c r="H7">
-        <v>2.06030720464197</v>
+        <v>6.233495</v>
       </c>
       <c r="I7">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="J7">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.0562213800374</v>
+        <v>30.255923</v>
       </c>
       <c r="N7">
-        <v>30.0562213800374</v>
+        <v>90.767769</v>
       </c>
       <c r="O7">
-        <v>0.3294645012058961</v>
+        <v>0.3062438890999955</v>
       </c>
       <c r="P7">
-        <v>0.3294645012058961</v>
+        <v>0.3062438890999956</v>
       </c>
       <c r="Q7">
-        <v>61.92504945360507</v>
+        <v>62.86671491362834</v>
       </c>
       <c r="R7">
-        <v>61.92504945360507</v>
+        <v>565.8004342226551</v>
       </c>
       <c r="S7">
-        <v>0.1702560085164788</v>
+        <v>0.1413245175853259</v>
       </c>
       <c r="T7">
-        <v>0.1702560085164788</v>
+        <v>0.1413245175853259</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.06030720464197</v>
+        <v>2.077831666666667</v>
       </c>
       <c r="H8">
-        <v>2.06030720464197</v>
+        <v>6.233495</v>
       </c>
       <c r="I8">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="J8">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.292460938973</v>
+        <v>29.46429466666667</v>
       </c>
       <c r="N8">
-        <v>27.292460938973</v>
+        <v>88.39288400000001</v>
       </c>
       <c r="O8">
-        <v>0.2991692440724548</v>
+        <v>0.2982311988402488</v>
       </c>
       <c r="P8">
-        <v>0.2991692440724548</v>
+        <v>0.2982311988402488</v>
       </c>
       <c r="Q8">
-        <v>56.23085390497562</v>
+        <v>61.22184449439779</v>
       </c>
       <c r="R8">
-        <v>56.23085390497562</v>
+        <v>550.9966004495801</v>
       </c>
       <c r="S8">
-        <v>0.1546004537066552</v>
+        <v>0.1376268451555273</v>
       </c>
       <c r="T8">
-        <v>0.1546004537066552</v>
+        <v>0.1376268451555273</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.06030720464197</v>
+        <v>2.077831666666667</v>
       </c>
       <c r="H9">
-        <v>2.06030720464197</v>
+        <v>6.233495</v>
       </c>
       <c r="I9">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="J9">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.19068025472434</v>
+        <v>3.658912</v>
       </c>
       <c r="N9">
-        <v>3.19068025472434</v>
+        <v>10.976736</v>
       </c>
       <c r="O9">
-        <v>0.03497498455772114</v>
+        <v>0.03703471352550186</v>
       </c>
       <c r="P9">
-        <v>0.03497498455772114</v>
+        <v>0.03703471352550187</v>
       </c>
       <c r="Q9">
-        <v>6.573781516517433</v>
+        <v>7.602603219146668</v>
       </c>
       <c r="R9">
-        <v>6.573781516517433</v>
+        <v>68.42342897232001</v>
       </c>
       <c r="S9">
-        <v>0.01807387820820716</v>
+        <v>0.01709066926456548</v>
       </c>
       <c r="T9">
-        <v>0.01807387820820716</v>
+        <v>0.01709066926456549</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.686366068743921</v>
+        <v>0.8480786666666668</v>
       </c>
       <c r="H10">
-        <v>0.686366068743921</v>
+        <v>2.544236</v>
       </c>
       <c r="I10">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="J10">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.6881331656439</v>
+        <v>35.41769233333333</v>
       </c>
       <c r="N10">
-        <v>30.6881331656439</v>
+        <v>106.253077</v>
       </c>
       <c r="O10">
-        <v>0.3363912701639278</v>
+        <v>0.3584901985342537</v>
       </c>
       <c r="P10">
-        <v>0.3363912701639278</v>
+        <v>0.3584901985342537</v>
       </c>
       <c r="Q10">
-        <v>21.06329331799294</v>
+        <v>30.03698929046356</v>
       </c>
       <c r="R10">
-        <v>21.06329331799294</v>
+        <v>270.332903614172</v>
       </c>
       <c r="S10">
-        <v>0.05791117291266895</v>
+        <v>0.06752321999045845</v>
       </c>
       <c r="T10">
-        <v>0.05791117291266895</v>
+        <v>0.06752321999045845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.686366068743921</v>
+        <v>0.8480786666666668</v>
       </c>
       <c r="H11">
-        <v>0.686366068743921</v>
+        <v>2.544236</v>
       </c>
       <c r="I11">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="J11">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.0562213800374</v>
+        <v>30.255923</v>
       </c>
       <c r="N11">
-        <v>30.0562213800374</v>
+        <v>90.767769</v>
       </c>
       <c r="O11">
-        <v>0.3294645012058961</v>
+        <v>0.3062438890999955</v>
       </c>
       <c r="P11">
-        <v>0.3294645012058961</v>
+        <v>0.3062438890999956</v>
       </c>
       <c r="Q11">
-        <v>20.62957050991326</v>
+        <v>25.65940283660933</v>
       </c>
       <c r="R11">
-        <v>20.62957050991326</v>
+        <v>230.934625529484</v>
       </c>
       <c r="S11">
-        <v>0.05671870048418053</v>
+        <v>0.0576823957223386</v>
       </c>
       <c r="T11">
-        <v>0.05671870048418053</v>
+        <v>0.05768239572233862</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.686366068743921</v>
+        <v>0.8480786666666668</v>
       </c>
       <c r="H12">
-        <v>0.686366068743921</v>
+        <v>2.544236</v>
       </c>
       <c r="I12">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="J12">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.292460938973</v>
+        <v>29.46429466666667</v>
       </c>
       <c r="N12">
-        <v>27.292460938973</v>
+        <v>88.39288400000001</v>
       </c>
       <c r="O12">
-        <v>0.2991692440724548</v>
+        <v>0.2982311988402488</v>
       </c>
       <c r="P12">
-        <v>0.2991692440724548</v>
+        <v>0.2982311988402488</v>
       </c>
       <c r="Q12">
-        <v>18.73261912102992</v>
+        <v>24.98803973518045</v>
       </c>
       <c r="R12">
-        <v>18.73261912102992</v>
+        <v>224.892357616624</v>
       </c>
       <c r="S12">
-        <v>0.05150324446644995</v>
+        <v>0.05617316994898017</v>
       </c>
       <c r="T12">
-        <v>0.05150324446644995</v>
+        <v>0.05617316994898018</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.686366068743921</v>
+        <v>0.8480786666666668</v>
       </c>
       <c r="H13">
-        <v>0.686366068743921</v>
+        <v>2.544236</v>
       </c>
       <c r="I13">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="J13">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.19068025472434</v>
+        <v>3.658912</v>
       </c>
       <c r="N13">
-        <v>3.19068025472434</v>
+        <v>10.976736</v>
       </c>
       <c r="O13">
-        <v>0.03497498455772114</v>
+        <v>0.03703471352550186</v>
       </c>
       <c r="P13">
-        <v>0.03497498455772114</v>
+        <v>0.03703471352550187</v>
       </c>
       <c r="Q13">
-        <v>2.189974663053998</v>
+        <v>3.103045210410667</v>
       </c>
       <c r="R13">
-        <v>2.189974663053998</v>
+        <v>27.927406893696</v>
       </c>
       <c r="S13">
-        <v>0.006021090789166707</v>
+        <v>0.006975652664677042</v>
       </c>
       <c r="T13">
-        <v>0.006021090789166707</v>
+        <v>0.006975652664677044</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5465609439114389</v>
+        <v>0.7843913333333336</v>
       </c>
       <c r="H14">
-        <v>0.5465609439114389</v>
+        <v>2.353174000000001</v>
       </c>
       <c r="I14">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767371</v>
       </c>
       <c r="J14">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767372</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.6881331656439</v>
+        <v>35.41769233333333</v>
       </c>
       <c r="N14">
-        <v>30.6881331656439</v>
+        <v>106.253077</v>
       </c>
       <c r="O14">
-        <v>0.3363912701639278</v>
+        <v>0.3584901985342537</v>
       </c>
       <c r="P14">
-        <v>0.3363912701639278</v>
+        <v>0.3584901985342537</v>
       </c>
       <c r="Q14">
-        <v>16.77293502989427</v>
+        <v>27.78133091293311</v>
       </c>
       <c r="R14">
-        <v>16.77293502989427</v>
+        <v>250.031978216398</v>
       </c>
       <c r="S14">
-        <v>0.04611531188902063</v>
+        <v>0.06245249484632207</v>
       </c>
       <c r="T14">
-        <v>0.04611531188902063</v>
+        <v>0.06245249484632208</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5465609439114389</v>
+        <v>0.7843913333333336</v>
       </c>
       <c r="H15">
-        <v>0.5465609439114389</v>
+        <v>2.353174000000001</v>
       </c>
       <c r="I15">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767371</v>
       </c>
       <c r="J15">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767372</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.0562213800374</v>
+        <v>30.255923</v>
       </c>
       <c r="N15">
-        <v>30.0562213800374</v>
+        <v>90.767769</v>
       </c>
       <c r="O15">
-        <v>0.3294645012058961</v>
+        <v>0.3062438890999955</v>
       </c>
       <c r="P15">
-        <v>0.3294645012058961</v>
+        <v>0.3062438890999956</v>
       </c>
       <c r="Q15">
-        <v>16.42755672788442</v>
+        <v>23.73248378320067</v>
       </c>
       <c r="R15">
-        <v>16.42755672788442</v>
+        <v>213.592354048806</v>
       </c>
       <c r="S15">
-        <v>0.04516573281484561</v>
+        <v>0.05335067732376967</v>
       </c>
       <c r="T15">
-        <v>0.04516573281484561</v>
+        <v>0.05335067732376969</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5465609439114389</v>
+        <v>0.7843913333333336</v>
       </c>
       <c r="H16">
-        <v>0.5465609439114389</v>
+        <v>2.353174000000001</v>
       </c>
       <c r="I16">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767371</v>
       </c>
       <c r="J16">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767372</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.292460938973</v>
+        <v>29.46429466666667</v>
       </c>
       <c r="N16">
-        <v>27.292460938973</v>
+        <v>88.39288400000001</v>
       </c>
       <c r="O16">
-        <v>0.2991692440724548</v>
+        <v>0.2982311988402488</v>
       </c>
       <c r="P16">
-        <v>0.2991692440724548</v>
+        <v>0.2982311988402488</v>
       </c>
       <c r="Q16">
-        <v>14.91699321247116</v>
+        <v>23.1115373793129</v>
       </c>
       <c r="R16">
-        <v>14.91699321247116</v>
+        <v>208.0038364138161</v>
       </c>
       <c r="S16">
-        <v>0.04101260710862289</v>
+        <v>0.05195478840073071</v>
       </c>
       <c r="T16">
-        <v>0.04101260710862289</v>
+        <v>0.05195478840073071</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5465609439114389</v>
+        <v>0.7843913333333336</v>
       </c>
       <c r="H17">
-        <v>0.5465609439114389</v>
+        <v>2.353174000000001</v>
       </c>
       <c r="I17">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767371</v>
       </c>
       <c r="J17">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767372</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.19068025472434</v>
+        <v>3.658912</v>
       </c>
       <c r="N17">
-        <v>3.19068025472434</v>
+        <v>10.976736</v>
       </c>
       <c r="O17">
-        <v>0.03497498455772114</v>
+        <v>0.03703471352550186</v>
       </c>
       <c r="P17">
-        <v>0.03497498455772114</v>
+        <v>0.03703471352550187</v>
       </c>
       <c r="Q17">
-        <v>1.743901211741726</v>
+        <v>2.870018862229335</v>
       </c>
       <c r="R17">
-        <v>1.743901211741726</v>
+        <v>25.83016976006401</v>
       </c>
       <c r="S17">
-        <v>0.004794661646263924</v>
+        <v>0.006451808905914678</v>
       </c>
       <c r="T17">
-        <v>0.004794661646263924</v>
+        <v>0.00645180890591468</v>
       </c>
     </row>
   </sheetData>
